--- a/public/excel/evaluacionUniforme.xlsx
+++ b/public/excel/evaluacionUniforme.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluación uniforme" sheetId="1" r:id="rId1"/>
+    <sheet name="Pasos para despachar" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
